--- a/Projek-GKV/Nilai Tukar.xlsx
+++ b/Projek-GKV/Nilai Tukar.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khali\GKV\Projek\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Akademik\Semester 4\Grafika Komputer dan Visualisasi\Project\project-GKV\Projek-GKV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4D510F-3A44-45ED-A2BD-DECC1CC9DA4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA10F47-EF0C-4855-A2FB-4F9372809B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="11688" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nilai Tukar" sheetId="1" r:id="rId1"/>
@@ -20,19 +20,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Nilai Tukar'!$A$1:$M$296</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -7579,9 +7566,9 @@
       <selection activeCell="H7" sqref="H7:H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7622,7 +7609,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2023</v>
       </c>
@@ -7663,7 +7650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -7704,7 +7691,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -7745,7 +7732,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -7786,7 +7773,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -7827,7 +7814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -7868,7 +7855,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -7909,7 +7896,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -7950,7 +7937,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>73</v>
       </c>
@@ -7991,7 +7978,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>83</v>
       </c>
@@ -8032,7 +8019,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>93</v>
       </c>
@@ -8073,7 +8060,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>103</v>
       </c>
@@ -8114,7 +8101,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>113</v>
       </c>
@@ -8155,7 +8142,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>123</v>
       </c>
@@ -8196,7 +8183,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -8237,7 +8224,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -8278,7 +8265,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -8319,7 +8306,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2021</v>
       </c>
@@ -8360,7 +8347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -8401,7 +8388,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -8442,7 +8429,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>63</v>
       </c>
@@ -8483,7 +8470,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>73</v>
       </c>
@@ -8524,7 +8511,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>83</v>
       </c>
@@ -8565,7 +8552,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>93</v>
       </c>
@@ -8606,7 +8593,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>103</v>
       </c>
@@ -8647,7 +8634,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>113</v>
       </c>
@@ -8688,7 +8675,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>123</v>
       </c>
@@ -8729,7 +8716,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -8770,7 +8757,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -8811,7 +8798,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -8852,7 +8839,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2020</v>
       </c>
@@ -8893,7 +8880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -8934,7 +8921,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -8975,7 +8962,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>63</v>
       </c>
@@ -9016,7 +9003,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>73</v>
       </c>
@@ -9057,7 +9044,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>83</v>
       </c>
@@ -9098,7 +9085,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>93</v>
       </c>
@@ -9139,7 +9126,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>103</v>
       </c>
@@ -9180,7 +9167,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>113</v>
       </c>
@@ -9221,7 +9208,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>123</v>
       </c>
@@ -9262,7 +9249,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -9303,7 +9290,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>23</v>
       </c>
@@ -9344,7 +9331,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>33</v>
       </c>
@@ -9385,7 +9372,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>2019</v>
       </c>
@@ -9426,7 +9413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>43</v>
       </c>
@@ -9467,7 +9454,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -9508,7 +9495,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>63</v>
       </c>
@@ -9549,7 +9536,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>73</v>
       </c>
@@ -9590,7 +9577,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>83</v>
       </c>
@@ -9631,7 +9618,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>93</v>
       </c>
@@ -9672,7 +9659,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>103</v>
       </c>
@@ -9713,7 +9700,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>113</v>
       </c>
@@ -9754,7 +9741,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>123</v>
       </c>
@@ -9795,7 +9782,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -9836,7 +9823,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>23</v>
       </c>
@@ -9877,7 +9864,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>33</v>
       </c>
@@ -9918,7 +9905,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>2018</v>
       </c>
@@ -9959,7 +9946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>43</v>
       </c>
@@ -10000,7 +9987,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>53</v>
       </c>
@@ -10041,7 +10028,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -10082,7 +10069,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>73</v>
       </c>
@@ -10123,7 +10110,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>83</v>
       </c>
@@ -10164,7 +10151,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>93</v>
       </c>
@@ -10205,7 +10192,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>103</v>
       </c>
@@ -10246,7 +10233,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>113</v>
       </c>
@@ -10287,7 +10274,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>123</v>
       </c>
@@ -10328,7 +10315,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>13</v>
       </c>
@@ -10369,7 +10356,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>23</v>
       </c>
@@ -10410,7 +10397,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>33</v>
       </c>
@@ -10451,7 +10438,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>2017</v>
       </c>
@@ -10492,7 +10479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>43</v>
       </c>
@@ -10533,7 +10520,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>53</v>
       </c>
@@ -10574,7 +10561,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>63</v>
       </c>
@@ -10615,7 +10602,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -10656,7 +10643,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>83</v>
       </c>
@@ -10697,7 +10684,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>93</v>
       </c>
@@ -10738,7 +10725,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>103</v>
       </c>
@@ -10779,7 +10766,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>113</v>
       </c>
@@ -10820,7 +10807,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>123</v>
       </c>
@@ -10861,7 +10848,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>13</v>
       </c>
@@ -10902,7 +10889,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>23</v>
       </c>
@@ -10943,7 +10930,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>33</v>
       </c>
@@ -10984,7 +10971,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>2016</v>
       </c>
@@ -11025,7 +11012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>43</v>
       </c>
@@ -11066,7 +11053,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>53</v>
       </c>
@@ -11107,7 +11094,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>63</v>
       </c>
@@ -11148,7 +11135,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>73</v>
       </c>
@@ -11189,7 +11176,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>83</v>
       </c>
@@ -11230,7 +11217,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>93</v>
       </c>
@@ -11271,7 +11258,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>103</v>
       </c>
@@ -11312,7 +11299,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>113</v>
       </c>
@@ -11353,7 +11340,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>123</v>
       </c>
@@ -11394,7 +11381,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>13</v>
       </c>
@@ -11435,7 +11422,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>23</v>
       </c>
@@ -11476,7 +11463,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>33</v>
       </c>
@@ -11517,7 +11504,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>2015</v>
       </c>
@@ -11558,7 +11545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>43</v>
       </c>
@@ -11599,7 +11586,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>53</v>
       </c>
@@ -11640,7 +11627,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>63</v>
       </c>
@@ -11681,7 +11668,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>73</v>
       </c>
@@ -11722,7 +11709,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>83</v>
       </c>
@@ -11763,7 +11750,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>93</v>
       </c>
@@ -11804,7 +11791,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -11845,7 +11832,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>113</v>
       </c>
@@ -11886,7 +11873,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>123</v>
       </c>
@@ -11927,7 +11914,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>13</v>
       </c>
@@ -11968,7 +11955,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>23</v>
       </c>
@@ -12009,7 +11996,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>33</v>
       </c>
@@ -12050,7 +12037,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>2014</v>
       </c>
@@ -12091,7 +12078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>43</v>
       </c>
@@ -12132,7 +12119,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>53</v>
       </c>
@@ -12173,7 +12160,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>63</v>
       </c>
@@ -12214,7 +12201,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>73</v>
       </c>
@@ -12255,7 +12242,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>83</v>
       </c>
@@ -12296,7 +12283,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>93</v>
       </c>
@@ -12337,7 +12324,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>103</v>
       </c>
@@ -12378,7 +12365,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>113</v>
       </c>
@@ -12419,7 +12406,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>123</v>
       </c>
@@ -12460,7 +12447,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>13</v>
       </c>
@@ -12501,7 +12488,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>23</v>
       </c>
@@ -12542,7 +12529,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>33</v>
       </c>
@@ -12583,7 +12570,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>2013</v>
       </c>
@@ -12624,7 +12611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>43</v>
       </c>
@@ -12665,7 +12652,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>53</v>
       </c>
@@ -12706,7 +12693,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>63</v>
       </c>
@@ -12747,7 +12734,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>73</v>
       </c>
@@ -12788,7 +12775,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>83</v>
       </c>
@@ -12829,7 +12816,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>93</v>
       </c>
@@ -12870,7 +12857,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>103</v>
       </c>
@@ -12911,7 +12898,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>113</v>
       </c>
@@ -12952,7 +12939,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>123</v>
       </c>
@@ -12993,7 +12980,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>13</v>
       </c>
@@ -13034,7 +13021,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>23</v>
       </c>
@@ -13075,7 +13062,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>33</v>
       </c>
@@ -13116,7 +13103,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>2012</v>
       </c>
@@ -13157,7 +13144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>43</v>
       </c>
@@ -13198,7 +13185,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>53</v>
       </c>
@@ -13239,7 +13226,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>63</v>
       </c>
@@ -13280,7 +13267,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>73</v>
       </c>
@@ -13321,7 +13308,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>83</v>
       </c>
@@ -13362,7 +13349,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>93</v>
       </c>
@@ -13403,7 +13390,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>103</v>
       </c>
@@ -13444,7 +13431,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>113</v>
       </c>
@@ -13485,7 +13472,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>123</v>
       </c>
@@ -13526,7 +13513,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>13</v>
       </c>
@@ -13567,7 +13554,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>23</v>
       </c>
@@ -13608,7 +13595,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>33</v>
       </c>
@@ -13649,7 +13636,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>2011</v>
       </c>
@@ -13690,7 +13677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>43</v>
       </c>
@@ -13731,7 +13718,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>53</v>
       </c>
@@ -13772,7 +13759,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>63</v>
       </c>
@@ -13813,7 +13800,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>73</v>
       </c>
@@ -13854,7 +13841,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>83</v>
       </c>
@@ -13895,7 +13882,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>93</v>
       </c>
@@ -13936,7 +13923,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>103</v>
       </c>
@@ -13977,7 +13964,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>113</v>
       </c>
@@ -14018,7 +14005,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>123</v>
       </c>
@@ -14059,7 +14046,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>13</v>
       </c>
@@ -14100,7 +14087,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>23</v>
       </c>
@@ -14141,7 +14128,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>33</v>
       </c>
@@ -14182,7 +14169,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>2010</v>
       </c>
@@ -14223,7 +14210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>43</v>
       </c>
@@ -14264,7 +14251,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>53</v>
       </c>
@@ -14305,7 +14292,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>63</v>
       </c>
@@ -14346,7 +14333,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>73</v>
       </c>
@@ -14387,7 +14374,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>83</v>
       </c>
@@ -14428,7 +14415,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>93</v>
       </c>
@@ -14469,7 +14456,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>103</v>
       </c>
@@ -14510,7 +14497,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>113</v>
       </c>
@@ -14551,7 +14538,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>123</v>
       </c>
@@ -14592,7 +14579,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>13</v>
       </c>
@@ -14633,7 +14620,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>23</v>
       </c>
@@ -14674,7 +14661,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>33</v>
       </c>
@@ -14715,7 +14702,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>2009</v>
       </c>
@@ -14756,7 +14743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>43</v>
       </c>
@@ -14797,7 +14784,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>53</v>
       </c>
@@ -14838,7 +14825,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>63</v>
       </c>
@@ -14879,7 +14866,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>73</v>
       </c>
@@ -14920,7 +14907,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>83</v>
       </c>
@@ -14961,7 +14948,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>93</v>
       </c>
@@ -15002,7 +14989,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>103</v>
       </c>
@@ -15043,7 +15030,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>113</v>
       </c>
@@ -15084,7 +15071,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>123</v>
       </c>
@@ -15125,7 +15112,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>13</v>
       </c>
@@ -15166,7 +15153,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>23</v>
       </c>
@@ -15207,7 +15194,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>33</v>
       </c>
@@ -15248,7 +15235,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>2008</v>
       </c>
@@ -15289,7 +15276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>43</v>
       </c>
@@ -15330,7 +15317,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>53</v>
       </c>
@@ -15371,7 +15358,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>63</v>
       </c>
@@ -15412,7 +15399,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>73</v>
       </c>
@@ -15453,7 +15440,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>83</v>
       </c>
@@ -15494,7 +15481,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>93</v>
       </c>
@@ -15535,7 +15522,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>103</v>
       </c>
@@ -15576,7 +15563,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>113</v>
       </c>
@@ -15617,7 +15604,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>123</v>
       </c>
@@ -15658,7 +15645,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>13</v>
       </c>
@@ -15699,7 +15686,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>23</v>
       </c>
@@ -15740,7 +15727,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>33</v>
       </c>
@@ -15781,7 +15768,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>2007</v>
       </c>
@@ -15822,7 +15809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>43</v>
       </c>
@@ -15863,7 +15850,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>53</v>
       </c>
@@ -15904,7 +15891,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>63</v>
       </c>
@@ -15945,7 +15932,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>73</v>
       </c>
@@ -15986,7 +15973,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>83</v>
       </c>
@@ -16027,7 +16014,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>93</v>
       </c>
@@ -16068,7 +16055,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>103</v>
       </c>
@@ -16109,7 +16096,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>113</v>
       </c>
@@ -16150,7 +16137,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>123</v>
       </c>
@@ -16191,7 +16178,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>13</v>
       </c>
@@ -16232,7 +16219,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>23</v>
       </c>
@@ -16273,7 +16260,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>33</v>
       </c>
@@ -16314,7 +16301,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>2006</v>
       </c>
@@ -16355,7 +16342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>43</v>
       </c>
@@ -16396,7 +16383,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>53</v>
       </c>
@@ -16437,7 +16424,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>63</v>
       </c>
@@ -16478,7 +16465,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>73</v>
       </c>
@@ -16519,7 +16506,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>83</v>
       </c>
@@ -16560,7 +16547,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>93</v>
       </c>
@@ -16601,7 +16588,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>103</v>
       </c>
@@ -16642,7 +16629,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>113</v>
       </c>
@@ -16683,7 +16670,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>123</v>
       </c>
@@ -16724,7 +16711,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>13</v>
       </c>
@@ -16765,7 +16752,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>23</v>
       </c>
@@ -16806,7 +16793,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>33</v>
       </c>
@@ -16847,7 +16834,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>2005</v>
       </c>
@@ -16888,7 +16875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>43</v>
       </c>
@@ -16929,7 +16916,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>53</v>
       </c>
@@ -16970,7 +16957,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>63</v>
       </c>
@@ -17011,7 +16998,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>73</v>
       </c>
@@ -17052,7 +17039,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>83</v>
       </c>
@@ -17093,7 +17080,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>93</v>
       </c>
@@ -17134,7 +17121,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>103</v>
       </c>
@@ -17175,7 +17162,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>113</v>
       </c>
@@ -17216,7 +17203,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>123</v>
       </c>
@@ -17257,7 +17244,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>13</v>
       </c>
@@ -17298,7 +17285,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>23</v>
       </c>
@@ -17339,7 +17326,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>33</v>
       </c>
@@ -17380,7 +17367,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>2004</v>
       </c>
@@ -17421,7 +17408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>43</v>
       </c>
@@ -17462,7 +17449,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>53</v>
       </c>
@@ -17503,7 +17490,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>63</v>
       </c>
@@ -17544,7 +17531,7 @@
         <v>1927</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>73</v>
       </c>
@@ -17585,7 +17572,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>83</v>
       </c>
@@ -17626,7 +17613,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>93</v>
       </c>
@@ -17667,7 +17654,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>103</v>
       </c>
@@ -17708,7 +17695,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>113</v>
       </c>
@@ -17749,7 +17736,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>123</v>
       </c>
@@ -17790,7 +17777,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>13</v>
       </c>
@@ -17831,7 +17818,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>23</v>
       </c>
@@ -17872,7 +17859,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>33</v>
       </c>
@@ -17913,7 +17900,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>2003</v>
       </c>
@@ -17954,7 +17941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>43</v>
       </c>
@@ -17995,7 +17982,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>53</v>
       </c>
@@ -18036,7 +18023,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>63</v>
       </c>
@@ -18077,7 +18064,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>73</v>
       </c>
@@ -18118,7 +18105,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>83</v>
       </c>
@@ -18159,7 +18146,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>93</v>
       </c>
@@ -18200,7 +18187,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>103</v>
       </c>
@@ -18241,7 +18228,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>113</v>
       </c>
@@ -18282,7 +18269,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>123</v>
       </c>
@@ -18323,7 +18310,7 @@
         <v>2071</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>13</v>
       </c>
@@ -18364,7 +18351,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>23</v>
       </c>
@@ -18405,7 +18392,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>33</v>
       </c>
@@ -18446,7 +18433,7 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>2002</v>
       </c>
@@ -18487,7 +18474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>43</v>
       </c>
@@ -18528,7 +18515,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>53</v>
       </c>
@@ -18569,7 +18556,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>63</v>
       </c>
@@ -18610,7 +18597,7 @@
         <v>2118</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>73</v>
       </c>
@@ -18651,7 +18638,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>83</v>
       </c>
@@ -18692,7 +18679,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>93</v>
       </c>
@@ -18733,7 +18720,7 @@
         <v>2145</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>103</v>
       </c>
@@ -18774,7 +18761,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>113</v>
       </c>
@@ -18815,7 +18802,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>123</v>
       </c>
@@ -18856,7 +18843,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>13</v>
       </c>
@@ -18897,7 +18884,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>23</v>
       </c>
@@ -18938,7 +18925,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>33</v>
       </c>
@@ -18979,7 +18966,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>2001</v>
       </c>
@@ -19020,7 +19007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>43</v>
       </c>
@@ -19061,7 +19048,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>53</v>
       </c>
@@ -19102,7 +19089,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>63</v>
       </c>
@@ -19143,7 +19130,7 @@
         <v>2233</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>73</v>
       </c>
@@ -19184,7 +19171,7 @@
         <v>2245</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>83</v>
       </c>
@@ -19225,7 +19212,7 @@
         <v>2255</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>93</v>
       </c>
@@ -19266,7 +19253,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>103</v>
       </c>
@@ -19307,7 +19294,7 @@
         <v>2279</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>113</v>
       </c>
@@ -19348,7 +19335,7 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>123</v>
       </c>
@@ -19389,7 +19376,7 @@
         <v>2303</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>13</v>
       </c>
@@ -19430,7 +19417,7 @@
         <v>2314</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>23</v>
       </c>
@@ -19471,7 +19458,7 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>33</v>
       </c>
@@ -19512,7 +19499,7 @@
         <v>2338</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>2000</v>
       </c>
@@ -19553,7 +19540,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>1999</v>
       </c>
@@ -19594,7 +19581,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>1998</v>
       </c>
@@ -19635,7 +19622,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>1997</v>
       </c>
@@ -19676,7 +19663,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>1996</v>
       </c>
@@ -19729,15 +19716,15 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G13"/>
+      <selection activeCell="B15" sqref="B15:G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.21875" customWidth="1"/>
+    <col min="1" max="1" width="12.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2391</v>
       </c>
@@ -19760,309 +19747,309 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B2" s="1">
-        <v>14.381</v>
+        <v>14381</v>
       </c>
       <c r="C2" s="1">
-        <v>15.446</v>
+        <v>15446</v>
       </c>
       <c r="D2" s="1">
-        <v>10.6</v>
+        <v>106</v>
       </c>
       <c r="E2" s="1">
-        <v>3.427</v>
+        <v>3427</v>
       </c>
       <c r="F2" s="1">
-        <v>10.076000000000001</v>
+        <v>10076</v>
       </c>
       <c r="G2" s="1">
-        <v>11.263</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>11263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="1">
-        <v>14.371</v>
+        <v>14371</v>
       </c>
       <c r="C3" s="1">
-        <v>15.62</v>
+        <v>1562</v>
       </c>
       <c r="D3" s="1">
-        <v>10.631</v>
+        <v>10631</v>
       </c>
       <c r="E3" s="1">
-        <v>3.419</v>
+        <v>3419</v>
       </c>
       <c r="F3" s="1">
-        <v>10.327999999999999</v>
+        <v>10328</v>
       </c>
       <c r="G3" s="1">
-        <v>11.218999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>11219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="1">
-        <v>14.349</v>
+        <v>14349</v>
       </c>
       <c r="C4" s="1">
-        <v>15.502000000000001</v>
+        <v>15502</v>
       </c>
       <c r="D4" s="1">
-        <v>10.603999999999999</v>
+        <v>10604</v>
       </c>
       <c r="E4" s="1">
-        <v>3.4119999999999999</v>
+        <v>3412</v>
       </c>
       <c r="F4" s="1">
-        <v>10.782999999999999</v>
+        <v>10783</v>
       </c>
       <c r="G4" s="1">
-        <v>11.497</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>11497</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B5" s="1">
-        <v>14.417999999999999</v>
+        <v>14418</v>
       </c>
       <c r="C5" s="1">
-        <v>14.930999999999999</v>
+        <v>14931</v>
       </c>
       <c r="D5" s="1">
-        <v>10.448</v>
+        <v>10448</v>
       </c>
       <c r="E5" s="1">
-        <v>3.306</v>
+        <v>3306</v>
       </c>
       <c r="F5" s="1">
-        <v>10.31</v>
+        <v>1031</v>
       </c>
       <c r="G5" s="1">
-        <v>11.225</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>11225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B6" s="1">
-        <v>14.544</v>
+        <v>14544</v>
       </c>
       <c r="C6" s="1">
-        <v>15.201000000000001</v>
+        <v>15201</v>
       </c>
       <c r="D6" s="1">
-        <v>10.637</v>
+        <v>10637</v>
       </c>
       <c r="E6" s="1">
-        <v>3.327</v>
+        <v>3327</v>
       </c>
       <c r="F6" s="1">
-        <v>10.454000000000001</v>
+        <v>10454</v>
       </c>
       <c r="G6" s="1">
-        <v>11.458</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>11458</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B7" s="1">
-        <v>14.848000000000001</v>
+        <v>14848</v>
       </c>
       <c r="C7" s="1">
-        <v>15.545999999999999</v>
+        <v>15546</v>
       </c>
       <c r="D7" s="1">
-        <v>10.685</v>
+        <v>10685</v>
       </c>
       <c r="E7" s="1">
-        <v>3.3740000000000001</v>
+        <v>3374</v>
       </c>
       <c r="F7" s="1">
-        <v>10.209</v>
+        <v>10209</v>
       </c>
       <c r="G7" s="1">
-        <v>11.531000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>11531</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B8" s="1">
-        <v>14.958</v>
+        <v>14958</v>
       </c>
       <c r="C8" s="1">
-        <v>15.593</v>
+        <v>15593</v>
       </c>
       <c r="D8" s="1">
-        <v>10.829000000000001</v>
+        <v>10829</v>
       </c>
       <c r="E8" s="1">
-        <v>3.3610000000000002</v>
+        <v>3361</v>
       </c>
       <c r="F8" s="1">
-        <v>10.467000000000001</v>
+        <v>10467</v>
       </c>
       <c r="G8" s="1">
-        <v>11.679</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>11679</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B9" s="1">
-        <v>14.875</v>
+        <v>14875</v>
       </c>
       <c r="C9" s="1">
-        <v>15.33</v>
+        <v>1533</v>
       </c>
       <c r="D9" s="1">
-        <v>10.654999999999999</v>
+        <v>10655</v>
       </c>
       <c r="E9" s="1">
-        <v>3.319</v>
+        <v>3319</v>
       </c>
       <c r="F9" s="1">
-        <v>10.303000000000001</v>
+        <v>10303</v>
       </c>
       <c r="G9" s="1">
-        <v>11.451000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>11451</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B10" s="1">
-        <v>15.247</v>
+        <v>15247</v>
       </c>
       <c r="C10" s="1">
-        <v>15.487</v>
+        <v>15487</v>
       </c>
       <c r="D10" s="1">
-        <v>10.561999999999999</v>
+        <v>10562</v>
       </c>
       <c r="E10" s="1">
-        <v>3.28</v>
+        <v>328</v>
       </c>
       <c r="F10" s="1">
-        <v>9.8230000000000004</v>
+        <v>9823</v>
       </c>
       <c r="G10" s="1">
-        <v>11.090999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>11091</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B11" s="1">
-        <v>15.542</v>
+        <v>15542</v>
       </c>
       <c r="C11" s="1">
-        <v>15.625999999999999</v>
+        <v>15626</v>
       </c>
       <c r="D11" s="1">
-        <v>11.005000000000001</v>
+        <v>11005</v>
       </c>
       <c r="E11" s="1">
-        <v>3.2909999999999999</v>
+        <v>3291</v>
       </c>
       <c r="F11" s="1">
-        <v>9.9789999999999992</v>
+        <v>9979</v>
       </c>
       <c r="G11" s="1">
-        <v>11.425000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>11425</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B12" s="1">
-        <v>15.737</v>
+        <v>15737</v>
       </c>
       <c r="C12" s="1">
-        <v>16.606999999999999</v>
+        <v>16607</v>
       </c>
       <c r="D12" s="1">
-        <v>11.458</v>
+        <v>11458</v>
       </c>
       <c r="E12" s="1">
-        <v>3.49</v>
+        <v>349</v>
       </c>
       <c r="F12" s="1">
-        <v>10.574999999999999</v>
+        <v>10575</v>
       </c>
       <c r="G12" s="1">
-        <v>11.727</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>11727</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B13" s="1">
-        <v>15.731</v>
+        <v>15731</v>
       </c>
       <c r="C13" s="1">
-        <v>16.968</v>
+        <v>16968</v>
       </c>
       <c r="D13" s="1">
-        <v>11.659000000000001</v>
+        <v>11659</v>
       </c>
       <c r="E13" s="1">
-        <v>3.556</v>
+        <v>3556</v>
       </c>
       <c r="F13" s="1">
-        <v>10.581</v>
+        <v>10581</v>
       </c>
       <c r="G13" s="1">
-        <v>11.566000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>11566</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B15">
-        <f>AVERAGE(B2:B13)</f>
-        <v>14.916749999999999</v>
+        <f t="shared" ref="B15:G15" si="0">AVERAGE(B2:B13)</f>
+        <v>14916.75</v>
       </c>
       <c r="C15">
-        <f>AVERAGE(C2:C13)</f>
-        <v>15.654749999999998</v>
+        <f t="shared" si="0"/>
+        <v>13333.5</v>
       </c>
       <c r="D15">
-        <f>AVERAGE(D2:D13)</f>
-        <v>10.814416666666666</v>
+        <f t="shared" si="0"/>
+        <v>9939.9166666666661</v>
       </c>
       <c r="E15">
-        <f>AVERAGE(E2:E13)</f>
-        <v>3.3801666666666663</v>
+        <f t="shared" si="0"/>
+        <v>2872.4166666666665</v>
       </c>
       <c r="F15">
-        <f>AVERAGE(F2:F13)</f>
-        <v>10.324</v>
+        <f t="shared" si="0"/>
+        <v>9550.75</v>
       </c>
       <c r="G15">
-        <f>AVERAGE(G2:G13)</f>
-        <v>11.427666666666667</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>11427.666666666666</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
@@ -20082,27 +20069,27 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
         <v>12</v>
       </c>
